--- a/mb.xlsx
+++ b/mb.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmgci\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\6502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD31F3C-762A-442A-8A5F-1D7A477308B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F918FE1-AE26-449F-B15E-EA0E06F6368E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Programmer" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>A15</t>
   </si>
@@ -148,6 +149,21 @@
   </si>
   <si>
     <t>BRK</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>OEN</t>
+  </si>
+  <si>
+    <t>RCLK</t>
+  </si>
+  <si>
+    <t>SCLK</t>
   </si>
 </sst>
 </file>
@@ -337,6 +353,253 @@
         <a:xfrm rot="5400000">
           <a:off x="2487250" y="-280946"/>
           <a:ext cx="4028571" cy="8624793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>122462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E33CC38-3ED8-43CE-B9E3-8E70CEE5DAF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8790215" y="2598962"/>
+          <a:ext cx="3456214" cy="2818460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480740</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF13D950-0C07-487A-B98A-F9E52DA67084}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1962150" y="1466850"/>
+          <a:ext cx="2276190" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>423850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA2ABAA-6136-4379-B2B0-7D30E4AAD481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4591050" y="1495425"/>
+          <a:ext cx="2276190" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>386552</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="BC557 Transistor Pinout, Equivalent, Features uses - Envirementalb.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A323D2E9-4137-4341-8B51-52B32325A103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7000876" y="933451"/>
+          <a:ext cx="4968076" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389AF31F-DC01-48D7-8D15-6F16E0BDABF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409826" y="819152"/>
+          <a:ext cx="3876674" cy="3876674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -648,7 +911,7 @@
   <dimension ref="A3:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,19 +945,19 @@
         <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>36</v>
@@ -930,4 +1193,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851C960A-ABA6-449D-B37A-7A91B41824C4}">
+  <dimension ref="H22:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="22" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8B79B4-CE74-4060-BD3B-385346B424EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>